--- a/day2/Template Data Dictionary.xlsx
+++ b/day2/Template Data Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stepheaneff/Documents/work/GT/data-science-basics-2023/day2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24DDEB5A-E95F-9045-9556-E62804D8B4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094B016D-0B7A-F441-9535-A098025DA145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="760" windowWidth="29780" windowHeight="16820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -738,22 +738,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>165100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>228544</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1587500</xdr:colOff>
+      <xdr:colOff>1510700</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1308100</xdr:rowOff>
+      <xdr:rowOff>1536700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C80162C-1737-1E5F-F602-50DAAC02FAC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16DE2D36-D71A-6E4C-B6A7-B79C33991727}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -769,8 +769,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="114300" y="228544"/>
-          <a:ext cx="3708400" cy="1079556"/>
+          <a:off x="165100" y="0"/>
+          <a:ext cx="3580800" cy="1536700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -987,7 +987,7 @@
   <dimension ref="A1:V1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/day2/Template Data Dictionary.xlsx
+++ b/day2/Template Data Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stepheaneff/Documents/work/GT/data-science-basics-2023/day2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094B016D-0B7A-F441-9535-A098025DA145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220882F2-E700-0A45-8F55-FC7AA405112D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="760" windowWidth="29780" windowHeight="16820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -987,7 +987,7 @@
   <dimension ref="A1:V1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3207,7 +3207,7 @@
   <dimension ref="A1:V999"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7438,7 +7438,7 @@
   <dimension ref="A1:S999"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
